--- a/test-files/input.xlsx
+++ b/test-files/input.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-27.6933333333333</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O5" s="3">
         <v>1427</v>
@@ -746,14 +746,14 @@
       <c r="I6" s="3">
         <v>-0.31</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>409.18833333333401</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-113.698333333333</v>
+        <v>90.16</v>
       </c>
       <c r="O6" s="3">
         <v>500</v>
@@ -781,14 +781,14 @@
       <c r="I7" s="3">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="K7">
-        <v>272.90333333333302</v>
+      <c r="K7" s="4">
+        <v>1170</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-199.70333333333301</v>
+        <v>85.39</v>
       </c>
       <c r="O7" s="3">
         <v>1427</v>
@@ -816,14 +816,14 @@
       <c r="I8" s="3">
         <v>-2.4E-2</v>
       </c>
-      <c r="K8" s="4">
-        <v>136.618333333333</v>
+      <c r="K8">
+        <v>386.7</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-285.70833333333297</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
@@ -852,13 +852,13 @@
         <v>-6.0000000000000097E-3</v>
       </c>
       <c r="K9">
-        <v>0.33333333333257498</v>
+        <v>897.43</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-371.71333333333303</v>
+        <v>90.16</v>
       </c>
       <c r="O9" s="3">
         <v>590</v>
@@ -886,14 +886,14 @@
       <c r="I10" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="K10">
-        <v>-135.951666666666</v>
+      <c r="K10" s="4">
+        <v>545.47333333333404</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-457.71833333333302</v>
+        <v>85.39</v>
       </c>
       <c r="O10" s="3">
         <v>1427</v>
@@ -922,13 +922,13 @@
         <v>0.03</v>
       </c>
       <c r="K11" s="4">
-        <v>-272.236666666666</v>
+        <v>409.18833333333401</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-543.72333333333302</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O11" s="3">
         <v>500</v>
@@ -956,14 +956,14 @@
       <c r="I12" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K12">
-        <v>-408.52166666666602</v>
+      <c r="K12" s="4">
+        <v>1170</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-629.72833333333301</v>
+        <v>90.16</v>
       </c>
       <c r="O12" s="3">
         <v>1427</v>
@@ -992,13 +992,13 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="K13">
-        <v>-544.80666666666605</v>
+        <v>386.7</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>-715.73333333333301</v>
+        <v>85.39</v>
       </c>
       <c r="O13" s="3">
         <v>500</v>
@@ -1026,14 +1026,14 @@
       <c r="I14" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K14" s="4">
-        <v>-681.09166666666601</v>
+      <c r="K14">
+        <v>897.43</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-801.738333333333</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O14" s="3">
         <v>590</v>
@@ -1064,14 +1064,14 @@
       <c r="I15" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="K15">
-        <v>-817.37666666666598</v>
+      <c r="K15" s="4">
+        <v>545.47333333333404</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>-887.743333333333</v>
+        <v>90.16</v>
       </c>
       <c r="O15" s="3">
         <v>1427</v>
@@ -1099,14 +1099,14 @@
       <c r="I16" s="3">
         <v>0.12</v>
       </c>
-      <c r="K16">
-        <v>-953.66166666666595</v>
+      <c r="K16" s="4">
+        <v>409.18833333333401</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>-973.74833333333299</v>
+        <v>85.39</v>
       </c>
       <c r="O16" s="3">
         <v>500</v>
@@ -1135,13 +1135,13 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="K17" s="4">
-        <v>-1089.9466666666699</v>
+        <v>1170</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>-1059.7533333333299</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O17" s="3">
         <v>1427</v>
@@ -1170,13 +1170,13 @@
         <v>0.156</v>
       </c>
       <c r="K18">
-        <v>-1226.23166666667</v>
+        <v>386.7</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>-1145.75833333333</v>
+        <v>90.16</v>
       </c>
       <c r="O18" s="3">
         <v>500</v>
@@ -1204,14 +1204,14 @@
       <c r="I19" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="K19">
-        <v>-1362.5166666666701</v>
+      <c r="K19" s="4">
+        <v>1170</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-1231.7633333333299</v>
+        <v>85.39</v>
       </c>
       <c r="O19" s="3">
         <v>590</v>
@@ -1239,14 +1239,14 @@
       <c r="I20" s="3">
         <v>0.192</v>
       </c>
-      <c r="K20" s="4">
-        <v>-1498.8016666666699</v>
+      <c r="K20">
+        <v>386.7</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>-1317.76833333333</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O20" s="3">
         <v>1427</v>
@@ -1275,13 +1275,13 @@
         <v>0.21</v>
       </c>
       <c r="K21">
-        <v>-1635.08666666667</v>
+        <v>897.43</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>-1403.7733333333299</v>
+        <v>90.16</v>
       </c>
       <c r="O21" s="3">
         <v>500</v>
@@ -1309,14 +1309,14 @@
       <c r="I22" s="3">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K22">
-        <v>-1771.3716666666701</v>
+      <c r="K22" s="4">
+        <v>545.47333333333404</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>-1489.77833333333</v>
+        <v>85.39</v>
       </c>
       <c r="O22" s="3">
         <v>1427</v>
@@ -1345,13 +1345,13 @@
         <v>0.246</v>
       </c>
       <c r="K23" s="4">
-        <v>-1907.6566666666699</v>
+        <v>409.18833333333401</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>-1575.7833333333299</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O23" s="3">
         <v>500</v>
@@ -1379,14 +1379,14 @@
       <c r="I24" s="3">
         <v>0.26400000000000001</v>
       </c>
-      <c r="K24">
-        <v>-2043.94166666667</v>
+      <c r="K24" s="4">
+        <v>1170</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>-1661.78833333333</v>
+        <v>90.16</v>
       </c>
       <c r="O24" s="3">
         <v>590</v>
@@ -1415,13 +1415,13 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="K25">
-        <v>-2180.2266666666701</v>
+        <v>386.7</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>-1747.7933333333301</v>
+        <v>85.39</v>
       </c>
       <c r="O25" s="3">
         <v>1427</v>
@@ -1449,14 +1449,14 @@
       <c r="I26" s="3">
         <v>0.3</v>
       </c>
-      <c r="K26" s="4">
-        <v>-2316.51166666667</v>
+      <c r="K26">
+        <v>897.43</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>-1833.79833333333</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O26" s="3">
         <v>500</v>
@@ -1484,14 +1484,14 @@
       <c r="I27" s="3">
         <v>0.318</v>
       </c>
-      <c r="K27">
-        <v>-2452.7966666666698</v>
+      <c r="K27" s="4">
+        <v>545.47333333333404</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>-1919.8033333333301</v>
+        <v>90.16</v>
       </c>
       <c r="O27" s="3">
         <v>1427</v>
@@ -1519,14 +1519,14 @@
       <c r="I28" s="3">
         <v>0.33600000000000002</v>
       </c>
-      <c r="K28">
-        <v>-2589.0816666666701</v>
+      <c r="K28" s="4">
+        <v>409.18833333333401</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>-2005.80833333333</v>
+        <v>85.39</v>
       </c>
       <c r="O28" s="3">
         <v>500</v>
@@ -1555,13 +1555,13 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="K29" s="4">
-        <v>-2725.36666666667</v>
+        <v>1170</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>-2091.8133333333299</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="O29" s="3">
         <v>590</v>
@@ -1590,13 +1590,13 @@
         <v>0.372</v>
       </c>
       <c r="K30">
-        <v>-2861.6516666666698</v>
+        <v>386.7</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>-2177.81833333333</v>
+        <v>90.16</v>
       </c>
       <c r="O30" s="3">
         <v>1427</v>
@@ -1625,13 +1625,13 @@
         <v>0.39</v>
       </c>
       <c r="K31">
-        <v>-2997.9366666666701</v>
+        <v>897.43</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-2263.8233333333301</v>
+        <v>85.39</v>
       </c>
       <c r="O31" s="3">
         <v>500</v>
